--- a/pred_ohlcv/54_21/2019-10-26 XEM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 XEM ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>127587.83593357</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>126316.83593357</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>116316.83593357</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>117327.91383357</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>122895.14673357</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>125485.14673357</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>125508.53620725</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>120122.35770725</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>120122.35770725</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>121076.77520725</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>121076.77520725</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>120122.35770725</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>129522.35770725</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -886,7 +886,7 @@
         <v>127510.41090725</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>127510.41090725</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>495033.5329774999</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>493933.5329774999</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>477423.8163775</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>475223.8163775</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>480751.3729775</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>477897.3729775</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>477897.3729775</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>482541.6623775</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>482541.6623775</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>473039.1824775</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>475289.3393775</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>462962.6885775</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>445240.6676775001</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>200164.0895534403</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>200164.0895534403</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>200164.0895534403</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>200164.0895534403</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>167210.7170534403</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>167210.7170534403</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>167210.7170534403</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>167237.7170534403</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-26 XEM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 XEM ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>127587.83593357</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>126316.83593357</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>116316.83593357</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>117327.91383357</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>122895.14673357</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>125485.14673357</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>125508.53620725</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>120122.35770725</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>120122.35770725</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>121076.77520725</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>121076.77520725</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>120122.35770725</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>129522.35770725</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -886,7 +886,7 @@
         <v>127510.41090725</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>127510.41090725</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>341493.9631774999</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>495033.5329774999</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>493933.5329774999</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>477423.8163775</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>475223.8163775</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>445240.6676775001</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>200164.0895534403</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>200164.0895534403</v>
       </c>
       <c r="H238">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>200164.0895534403</v>
       </c>
       <c r="H239">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>200164.0895534403</v>
       </c>
       <c r="H240">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>167210.7170534403</v>
       </c>
       <c r="H241">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>167210.7170534403</v>
       </c>
       <c r="H242">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>167210.7170534403</v>
       </c>
       <c r="H243">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>167237.7170534403</v>
       </c>
       <c r="H244">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
